--- a/testing/TestcaseTemplate.xlsx
+++ b/testing/TestcaseTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanjai.j\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\changepond-training\changepond-training\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="4428"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="182">
   <si>
     <t>Test Case Template</t>
   </si>
@@ -89,12 +89,6 @@
     <t>enter url</t>
   </si>
   <si>
-    <t>defaultly email is focused,click on sign up</t>
-  </si>
-  <si>
-    <t>click on student</t>
-  </si>
-  <si>
     <t>TS02</t>
   </si>
   <si>
@@ -113,18 +107,6 @@
     <t>Passed</t>
   </si>
   <si>
-    <t xml:space="preserve">check whether signup is redirecting </t>
-  </si>
-  <si>
-    <t>check the network and click on button</t>
-  </si>
-  <si>
-    <t>redirect to signup</t>
-  </si>
-  <si>
-    <t>Sign up page must be displayed</t>
-  </si>
-  <si>
     <t>Sign up page is displayed</t>
   </si>
   <si>
@@ -137,16 +119,463 @@
     <t>login</t>
   </si>
   <si>
-    <t>sign up</t>
-  </si>
-  <si>
-    <t>web elemnts</t>
+    <t>SignUp</t>
+  </si>
+  <si>
+    <t>login page with web elements</t>
+  </si>
+  <si>
+    <t>click on student button</t>
+  </si>
+  <si>
+    <t>click on sign up</t>
+  </si>
+  <si>
+    <t>email input field is focused</t>
+  </si>
+  <si>
+    <t>Sign Up page should be displayed</t>
+  </si>
+  <si>
+    <t>check signup navigation and visibility of signup page</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>TS03</t>
+  </si>
+  <si>
+    <t>check whether the form contains missing input elements or contains unwanted data.</t>
+  </si>
+  <si>
+    <t>sign up page must be displayed</t>
+  </si>
+  <si>
+    <t>first name field is present</t>
+  </si>
+  <si>
+    <t>last name field is present</t>
+  </si>
+  <si>
+    <t>Email field is present</t>
+  </si>
+  <si>
+    <t>Contact field is present</t>
+  </si>
+  <si>
+    <t>Password field is present</t>
+  </si>
+  <si>
+    <t>Confirm Password field is present</t>
+  </si>
+  <si>
+    <t>Select Role is present</t>
+  </si>
+  <si>
+    <t>Gender field is present</t>
+  </si>
+  <si>
+    <t>Branch field is present</t>
+  </si>
+  <si>
+    <t>submit button  is present</t>
+  </si>
+  <si>
+    <t>clear button is present</t>
+  </si>
+  <si>
+    <t>Required fields must be available and empty</t>
+  </si>
+  <si>
+    <t>Required fields are present and empty</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name </t>
+  </si>
+  <si>
+    <t>TS04</t>
+  </si>
+  <si>
+    <t>Check whether First Name field satisfies necessary conditions or not</t>
+  </si>
+  <si>
+    <t>signup page with webelements</t>
+  </si>
+  <si>
+    <t>focusing and unfocusing firstname field</t>
+  </si>
+  <si>
+    <t>entering data in range (1)</t>
+  </si>
+  <si>
+    <t>enter data in range (2,10)</t>
+  </si>
+  <si>
+    <t>enter data in range above(10)</t>
+  </si>
+  <si>
+    <t>empty field should throw warning</t>
+  </si>
+  <si>
+    <t>field should accept only alphabets in range(2,10)</t>
+  </si>
+  <si>
+    <t>data1 : ""</t>
+  </si>
+  <si>
+    <t>alphanumeric,spaces and special character should throw warning</t>
+  </si>
+  <si>
+    <t>enter data with alphanumeric,spaces and special characters</t>
+  </si>
+  <si>
+    <t>data2 : "s"</t>
+  </si>
+  <si>
+    <t>data3:"sanjai"</t>
+  </si>
+  <si>
+    <t>data4:"sanjaissssssssssss"</t>
+  </si>
+  <si>
+    <t>data5:"@dd22"</t>
+  </si>
+  <si>
+    <t>data6:"   "</t>
+  </si>
+  <si>
+    <t>empty data threw warning when unfocused</t>
+  </si>
+  <si>
+    <t>data not in range (2,10) threw warning</t>
+  </si>
+  <si>
+    <t>data with alphanumeric and special characters threw warning</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>TS05</t>
+  </si>
+  <si>
+    <t>focusing and unfocusing lastname field</t>
+  </si>
+  <si>
+    <t>data1:""</t>
+  </si>
+  <si>
+    <t>data2:"   "</t>
+  </si>
+  <si>
+    <t>data3:"s"</t>
+  </si>
+  <si>
+    <t>data6:"sa"</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>E-MAIL</t>
+  </si>
+  <si>
+    <t>TS06</t>
+  </si>
+  <si>
+    <t>Check whether Last Name field satisfies necessary conditions or not</t>
+  </si>
+  <si>
+    <t>Check whether EMAIL field satisfies necessary conditions or not</t>
+  </si>
+  <si>
+    <t>focusing and unfocusing email field</t>
+  </si>
+  <si>
+    <t>enter data in (1,320)</t>
+  </si>
+  <si>
+    <t>field should accept only alphabets in range(1,20) and only athelete special character and domain part with dot character</t>
+  </si>
+  <si>
+    <t>data2:"s#$@gmail.com"</t>
+  </si>
+  <si>
+    <t>data4:".com"</t>
+  </si>
+  <si>
+    <t>data3:"@gmail.com"</t>
+  </si>
+  <si>
+    <t>data5:"s@gmail.com"</t>
+  </si>
+  <si>
+    <t>data6:350characters@gmail.com</t>
+  </si>
+  <si>
+    <t>data above range (320) does not  threw warning</t>
+  </si>
+  <si>
+    <t>data without domain or viceversa threw warning</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>enter local part upto 64 characters</t>
+  </si>
+  <si>
+    <t>enter domain part upto 255 characters</t>
+  </si>
+  <si>
+    <t>data above 320 characters should throw warning</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>TS07</t>
+  </si>
+  <si>
+    <t>Check whether Contact field satisfies necessary conditions or not</t>
+  </si>
+  <si>
+    <t>enter empty data</t>
+  </si>
+  <si>
+    <t>enter data with spaces</t>
+  </si>
+  <si>
+    <t>enter non-numeric and alphanumeric data</t>
+  </si>
+  <si>
+    <t>field should accept only numeric data with range strictly 10</t>
+  </si>
+  <si>
+    <t>data with non-numeric and alphanumeric must throw warning</t>
+  </si>
+  <si>
+    <t>data3:"@89nd"</t>
+  </si>
+  <si>
+    <t>data4:"33"</t>
+  </si>
+  <si>
+    <t>data5:"9176071379"</t>
+  </si>
+  <si>
+    <t>data6:"ssss"</t>
+  </si>
+  <si>
+    <t>data7:"@@@@"</t>
+  </si>
+  <si>
+    <t>data above or below range (10)  threw warning</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>Password and Confirm Password</t>
+  </si>
+  <si>
+    <t>TS08</t>
+  </si>
+  <si>
+    <t>Check whether password and confirm password field meets necessary conditions</t>
+  </si>
+  <si>
+    <t>focusing and unfocusing on password field</t>
+  </si>
+  <si>
+    <t>focusing and unfocusing on confirm password field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clicking on eye icon </t>
+  </si>
+  <si>
+    <t>enter data with space</t>
+  </si>
+  <si>
+    <t>enter data in range(8) and above</t>
+  </si>
+  <si>
+    <t>enter data without meeting criteria</t>
+  </si>
+  <si>
+    <t>field must contain one lowercase,one uppercase,one number and one special character.</t>
+  </si>
+  <si>
+    <t>data must meet minimum eight characters</t>
+  </si>
+  <si>
+    <t>enter correct data in password and confirm password</t>
+  </si>
+  <si>
+    <t>enter correct data in password and wrong in password</t>
+  </si>
+  <si>
+    <t>enter wrong data in password and correct in password</t>
+  </si>
+  <si>
+    <t>enter wrong data in password and wrong in password</t>
+  </si>
+  <si>
+    <t>data1:"" data1:""</t>
+  </si>
+  <si>
+    <t>data2:"sa" data2:"sa"</t>
+  </si>
+  <si>
+    <t>data3:"" data3:"54f"</t>
+  </si>
+  <si>
+    <t>data4:"Sanjai@2k1" data4:"Sanjai@2k1"</t>
+  </si>
+  <si>
+    <t>data5:"Sanjai@2k1" data5:"Sanjak1"</t>
+  </si>
+  <si>
+    <t>data6:"San2k1" data6:"Sanjai@2k1"</t>
+  </si>
+  <si>
+    <t>data7:"Sanj2k1" data7:"@2k1"</t>
+  </si>
+  <si>
+    <t>all conditions satisfied</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>Select Role</t>
+  </si>
+  <si>
+    <t>TS09</t>
+  </si>
+  <si>
+    <t>Check whether select role is working correctly</t>
+  </si>
+  <si>
+    <t>select any one role</t>
+  </si>
+  <si>
+    <t>check role is properly selected</t>
+  </si>
+  <si>
+    <t>role is selected properly</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>Select Gender</t>
+  </si>
+  <si>
+    <t>TS10</t>
+  </si>
+  <si>
+    <t>select any one radio button</t>
+  </si>
+  <si>
+    <t>multiple buttons must not be selected</t>
+  </si>
+  <si>
+    <t>criteria statisfied</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>Select Branch</t>
+  </si>
+  <si>
+    <t>TS11</t>
+  </si>
+  <si>
+    <t>select one by one</t>
+  </si>
+  <si>
+    <t>enter input</t>
+  </si>
+  <si>
+    <t>In option 1,select option field must be visible</t>
+  </si>
+  <si>
+    <t>In option 2,3,input field must be visible</t>
+  </si>
+  <si>
+    <t>working properly</t>
+  </si>
+  <si>
+    <t>sanjai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data1:" " </t>
+  </si>
+  <si>
+    <t>empty fields and spaces are accepting</t>
+  </si>
+  <si>
+    <t>data2:""</t>
+  </si>
+  <si>
+    <t>data2:"@ddddsa24!@#"</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>TS12</t>
+  </si>
+  <si>
+    <t>Check submit button</t>
+  </si>
+  <si>
+    <t>click on submit</t>
+  </si>
+  <si>
+    <t>until valid data is entered submit must be disabled</t>
+  </si>
+  <si>
+    <t>signup page with webelements,valid form data</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>TS13</t>
+  </si>
+  <si>
+    <t>Check clear button</t>
+  </si>
+  <si>
+    <t>click on clear</t>
+  </si>
+  <si>
+    <t>exsisted data must be deleted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,18 +674,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -539,43 +968,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="E44" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="55.140625" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1"/>
-    <col min="6" max="6" width="38.5703125" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="71" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="38.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -610,42 +1039,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
         <v>26</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -655,7 +1084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -665,7 +1094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -675,156 +1104,818 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="9" t="s">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="C14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F17" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F18" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F19" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F20" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F21" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F22" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F23" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F24" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F35" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37" t="s">
+        <v>100</v>
+      </c>
+      <c r="K37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F39" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F40" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H43" t="s">
+        <v>81</v>
+      </c>
+      <c r="I43" t="s">
+        <v>74</v>
+      </c>
+      <c r="J43" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F44" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" t="s">
+        <v>82</v>
+      </c>
+      <c r="I44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F45" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G45" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" t="s">
+        <v>64</v>
+      </c>
+      <c r="H50" t="s">
+        <v>135</v>
+      </c>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J50" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>124</v>
+      </c>
+      <c r="G51" t="s">
+        <v>129</v>
+      </c>
+      <c r="H51" t="s">
+        <v>136</v>
+      </c>
+      <c r="I51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" t="s">
+        <v>130</v>
+      </c>
+      <c r="H52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>128</v>
+      </c>
+      <c r="H55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>131</v>
+      </c>
+      <c r="H56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" t="s">
+        <v>148</v>
+      </c>
+      <c r="I60" t="s">
+        <v>149</v>
+      </c>
+      <c r="J60" t="s">
+        <v>26</v>
+      </c>
+      <c r="K60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" t="s">
+        <v>153</v>
+      </c>
+      <c r="G62" t="s">
+        <v>154</v>
+      </c>
+      <c r="I62" t="s">
+        <v>155</v>
+      </c>
+      <c r="J62" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" t="s">
+        <v>153</v>
+      </c>
+      <c r="G63" t="s">
+        <v>161</v>
+      </c>
+      <c r="H63" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>159</v>
+      </c>
+      <c r="G64" t="s">
+        <v>162</v>
+      </c>
+      <c r="H64" t="s">
+        <v>167</v>
+      </c>
+      <c r="I64" t="s">
+        <v>166</v>
+      </c>
+      <c r="J64" t="s">
+        <v>100</v>
+      </c>
+      <c r="K64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>160</v>
+      </c>
+      <c r="H65" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" t="s">
+        <v>172</v>
+      </c>
+      <c r="E66" t="s">
+        <v>175</v>
+      </c>
+      <c r="F66" t="s">
+        <v>173</v>
+      </c>
+      <c r="G66" t="s">
+        <v>174</v>
+      </c>
+      <c r="I66" t="s">
+        <v>155</v>
+      </c>
+      <c r="J66" t="s">
+        <v>26</v>
+      </c>
+      <c r="K66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" t="s">
+        <v>180</v>
+      </c>
+      <c r="G67" t="s">
+        <v>181</v>
+      </c>
+      <c r="I67" t="s">
+        <v>163</v>
+      </c>
+      <c r="J67" t="s">
+        <v>26</v>
+      </c>
+      <c r="K67" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="D3:D10"/>
     <mergeCell ref="E3:E10"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1"/>
